--- a/doc/ProcessDocs/ProjectPlanning/GMATNavVer1.xlsx
+++ b/doc/ProcessDocs/ProjectPlanning/GMATNavVer1.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5175" tabRatio="907"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5175" tabRatio="907" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Dynamics" sheetId="19" r:id="rId1"/>
-    <sheet name="Parameters" sheetId="18" r:id="rId2"/>
-    <sheet name="GUI" sheetId="17" r:id="rId3"/>
-    <sheet name="ParticipantBase" sheetId="16" r:id="rId4"/>
+    <sheet name="NewResources" sheetId="27" r:id="rId1"/>
+    <sheet name="NewCommands" sheetId="26" r:id="rId2"/>
+    <sheet name="ModifiedResources" sheetId="25" r:id="rId3"/>
+    <sheet name="HelperClasses" sheetId="24" r:id="rId4"/>
+    <sheet name="OutPut" sheetId="23" r:id="rId5"/>
+    <sheet name="Dynamics" sheetId="19" r:id="rId6"/>
+    <sheet name="GUI" sheetId="17" r:id="rId7"/>
+    <sheet name="Miscellaneous" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>Bookkeep</t>
   </si>
   <si>
-    <t>Indiviual Prioritizations</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -200,6 +201,48 @@
   </si>
   <si>
     <t>Aspherical Gravity</t>
+  </si>
+  <si>
+    <t>Indiviual Estimates</t>
+  </si>
+  <si>
+    <t>Math Specs</t>
+  </si>
+  <si>
+    <t>Az/el</t>
+  </si>
+  <si>
+    <t>Ra/Dec</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Range rate</t>
+  </si>
+  <si>
+    <t>Propagator</t>
+  </si>
+  <si>
+    <t>Solar System Testing</t>
+  </si>
+  <si>
+    <t>Show Script/Save</t>
+  </si>
+  <si>
+    <t>Propagation with new sources</t>
+  </si>
+  <si>
+    <t>Graphics with new sources</t>
+  </si>
+  <si>
+    <t>Parameters with new sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPK file load </t>
+  </si>
+  <si>
+    <t>Coordinate Systems</t>
   </si>
 </sst>
 </file>
@@ -767,6 +810,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,36 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M48"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1192,114 +1235,114 @@
   <sheetData>
     <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B6" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="25"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1311,11 +1354,11 @@
       <c r="L7" s="15"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="26"/>
+    <row r="8" spans="2:13" ht="12" customHeight="1">
+      <c r="B8" s="12"/>
+      <c r="C8" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1325,341 +1368,146 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="24"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="9"/>
+    <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="31"/>
+    <row r="13" spans="2:13" ht="12" customHeight="1">
+      <c r="B13" s="12"/>
+      <c r="C13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B14" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="2:13" ht="12" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:13" ht="24" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="2:13" ht="12" customHeight="1">
-      <c r="B18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="2:13" ht="12" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="2:13" ht="12" customHeight="1">
-      <c r="B20" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B23" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="2:13" ht="12" customHeight="1">
-      <c r="B24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-    </row>
-    <row r="25" spans="2:13" ht="12" customHeight="1">
-      <c r="B25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-    </row>
-    <row r="27" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B23:M23"/>
+  <mergeCells count="7">
+    <mergeCell ref="B16:M16"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -1670,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M37"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1694,115 +1542,113 @@
   <sheetData>
     <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -1816,11 +1662,9 @@
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="12" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1834,11 +1678,9 @@
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -1853,7 +1695,7 @@
     </row>
     <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="33"/>
@@ -1868,27 +1710,25 @@
       <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" thickBot="1">
-      <c r="B11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:13" ht="12" customHeight="1">
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="10"/>
@@ -1902,11 +1742,9 @@
       <c r="M12" s="38"/>
     </row>
     <row r="13" spans="2:13" ht="12" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="10"/>
@@ -1919,11 +1757,11 @@
       <c r="L13" s="36"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="2:13" ht="12" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="30"/>
+    <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B14" s="12"/>
+      <c r="C14" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1935,60 +1773,42 @@
       <c r="L14" s="36"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-    </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="28" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B16:M16"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="D4:G4"/>
@@ -2005,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M60"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2029,115 +1849,115 @@
   <sheetData>
     <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B6" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1">
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2152,10 +1972,10 @@
     </row>
     <row r="8" spans="2:13" ht="12" customHeight="1">
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -2168,11 +1988,13 @@
       <c r="L8" s="11"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13" ht="12" customHeight="1">
+    <row r="9" spans="2:13" ht="12" customHeight="1" thickBot="1">
       <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2184,78 +2006,80 @@
       <c r="L9" s="11"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" ht="12" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" thickBot="1">
-      <c r="B13" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="2:13" ht="12" customHeight="1">
+    <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1">
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
@@ -2268,440 +2092,48 @@
       <c r="L14" s="36"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="2:13" ht="12" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:13" ht="12" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="2:13" ht="12" customHeight="1">
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B20" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B22" s="12"/>
-      <c r="C22" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="38"/>
-    </row>
-    <row r="24" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B25" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-    </row>
-    <row r="26" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="38"/>
-    </row>
-    <row r="27" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="38"/>
-    </row>
-    <row r="28" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="38"/>
-    </row>
-    <row r="29" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B30" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-    </row>
-    <row r="31" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B31" s="12"/>
-      <c r="C31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38"/>
-    </row>
-    <row r="32" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="38"/>
-    </row>
-    <row r="33" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B33" s="12"/>
-      <c r="C33" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="38"/>
-    </row>
-    <row r="34" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B35" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-    </row>
-    <row r="36" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B36" s="12"/>
-      <c r="C36" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="38"/>
-    </row>
-    <row r="37" spans="2:13" ht="12.2" customHeight="1">
-      <c r="B37" s="12"/>
-      <c r="C37" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B38" s="12"/>
-      <c r="C38" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44"/>
-    </row>
-    <row r="46" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B35:M35"/>
+  <mergeCells count="7">
+    <mergeCell ref="B16:M16"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -2715,7 +2147,7 @@
   <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2736,115 +2168,113 @@
   <sheetData>
     <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B6" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2858,11 +2288,9 @@
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="12" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -2876,11 +2304,9 @@
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -2895,7 +2321,7 @@
     </row>
     <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="33"/>
@@ -2910,27 +2336,25 @@
       <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" thickBot="1">
-      <c r="B11" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:13" ht="12" customHeight="1">
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="10"/>
@@ -2944,11 +2368,9 @@
       <c r="M12" s="38"/>
     </row>
     <row r="13" spans="2:13" ht="12" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="10"/>
@@ -2962,11 +2384,9 @@
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
-      <c r="B14" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
@@ -2981,7 +2401,7 @@
     </row>
     <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
       <c r="B15" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="33"/>
@@ -2996,18 +2416,18 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="22" ht="13.5" customHeight="1"/>
     <row r="27" ht="13.5" customHeight="1"/>
@@ -3015,6 +2435,326 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B11:M11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" customHeight="1">
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="12" customHeight="1">
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1">
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1">
+      <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3027,4 +2767,1612 @@
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" customHeight="1">
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" ht="24" customHeight="1">
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1">
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B14" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="12" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="2:13" ht="24" customHeight="1">
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="2:13" ht="12" customHeight="1">
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="2:13" ht="12" customHeight="1">
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="2:13" ht="12" customHeight="1">
+      <c r="B20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="12" customHeight="1">
+      <c r="B24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="2:13" ht="12" customHeight="1">
+      <c r="B25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B26" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B28" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="12" customHeight="1">
+      <c r="B29" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="2:13" ht="12" customHeight="1">
+      <c r="B30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+    </row>
+    <row r="31" spans="2:13" ht="12" customHeight="1">
+      <c r="B31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="40" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="45" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B28:M28"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" customHeight="1">
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="12" customHeight="1">
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" ht="12" customHeight="1">
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" ht="12" customHeight="1">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="2:13" ht="12" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="2:13" ht="12" customHeight="1">
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" ht="12" customHeight="1">
+      <c r="B17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B22" s="12"/>
+      <c r="C22" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B23" s="12"/>
+      <c r="C23" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B27" s="12"/>
+      <c r="C27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B28" s="12"/>
+      <c r="C28" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B31" s="12"/>
+      <c r="C31" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B32" s="12"/>
+      <c r="C32" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B33" s="12"/>
+      <c r="C33" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B35" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="46"/>
+    </row>
+    <row r="36" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B36" s="12"/>
+      <c r="C36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="2:13" ht="12.2" customHeight="1">
+      <c r="B37" s="12"/>
+      <c r="C37" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B38" s="12"/>
+      <c r="C38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="38"/>
+    </row>
+    <row r="39" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B35:M35"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B6" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" customHeight="1">
+      <c r="B7" s="12"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="12" customHeight="1">
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" ht="12" customHeight="1">
+      <c r="B9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" ht="12.75" customHeight="1">
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1">
+      <c r="B11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1">
+      <c r="B12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B14" s="12"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B6:M6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>